--- a/Output/Relatorio-Erros-RO094782.xlsx
+++ b/Output/Relatorio-Erros-RO094782.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E9DCF4-9459-45B4-8872-30C3A863E825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD382CE1-0789-4303-9CBD-CDE82EA0B9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DB49C59-F453-4490-9E95-D2222FBC70FA}"/>
   </bookViews>

--- a/Output/Relatorio-Erros-RO094782.xlsx
+++ b/Output/Relatorio-Erros-RO094782.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C977B796-24C9-498E-84F5-770B270320AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281D86CE-6AF5-4A5D-B23A-DFF750E80BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC10927F-1C90-4001-A6BE-93DA0B3C279B}"/>
   </bookViews>
